--- a/src/test/resources/amazon.xlsx
+++ b/src/test/resources/amazon.xlsx
@@ -24,18 +24,12 @@
     <t>password</t>
   </si>
   <si>
-    <t>bulentguneysu@hotmail.com</t>
-  </si>
-  <si>
     <t>amazontest1310@gmail.com</t>
   </si>
   <si>
     <t>123456aT</t>
   </si>
   <si>
-    <t>234765bG</t>
-  </si>
-  <si>
     <t>mail</t>
   </si>
   <si>
@@ -45,7 +39,13 @@
     <t>test</t>
   </si>
   <si>
-    <t>bulent</t>
+    <t>someone</t>
+  </si>
+  <si>
+    <t>135246aT</t>
+  </si>
+  <si>
+    <t>testssomeone@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -394,46 +394,46 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
